--- a/public/temp/evaluation_report_03_2025_nghiapt.xlsx
+++ b/public/temp/evaluation_report_03_2025_nghiapt.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>CỤC HẢI QUAN TỈNH HÀ TĨNH</t>
   </si>
@@ -38,10 +38,10 @@
     <t>1. Họ và tên: Phan Nghĩa</t>
   </si>
   <si>
-    <t>2. Vị trí, đơn vị công tác: Văn phòng - Hải quan cửa khẩu quốc tế Cầu Treo</t>
-  </si>
-  <si>
-    <t>3. Số ngày làm việc theo quy định của pháp luật lao động trong tháng: 28</t>
+    <t>2. Vị trí, đơn vị công tác: Văn phòng - Chi cục Hải quan khu vực IX</t>
+  </si>
+  <si>
+    <t>3. Số ngày làm việc theo quy định của pháp luật lao động trong tháng: 0</t>
   </si>
   <si>
     <t>4. Số ngày nghỉ trong tháng (có phép): 0</t>
@@ -83,9 +83,15 @@
     <t>Số công việc/ nhiệm vụ không hoàn thành đúng hạn hoặc không đảm bảo yêu cầu</t>
   </si>
   <si>
+    <t>Tự đánh giá</t>
+  </si>
+  <si>
     <t>Lãnh đạo trực tiếp đánh giá</t>
   </si>
   <si>
+    <t>Điểm</t>
+  </si>
+  <si>
     <t>Tên lãnh đạo trực tiếp đánh giá</t>
   </si>
   <si>
@@ -102,6 +108,18 @@
   </si>
   <si>
     <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>Vượt tiến độ hoặc có chất lượng hoặc hiệu quả cao</t>
+  </si>
+  <si>
+    <t>Đúng tiến độ, đảm bảo chất lượng và hiệu quả</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Nam</t>
+  </si>
+  <si>
+    <t>Chan Dan</t>
   </si>
   <si>
     <t>10. Kết quả xếp loại chất lượng tháng:</t>
@@ -493,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:L16"/>
+      <selection activeCell="A15" sqref="A15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,68 +527,71 @@
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
     <col min="7" max="7" width="15" customWidth="true" style="0"/>
     <col min="8" max="8" width="30" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20" customWidth="true" style="0"/>
-    <col min="10" max="10" width="30" customWidth="true" style="0"/>
-    <col min="11" max="11" width="20" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="30" customWidth="true" style="0"/>
+    <col min="10" max="10" width="20" customWidth="true" style="0"/>
+    <col min="11" max="11" width="30" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -581,12 +602,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -623,16 +644,25 @@
       <c r="L15" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5">
         <v>10</v>
@@ -646,29 +676,44 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="5">
+        <v>85</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
